--- a/Complete-spreadsheets/EC/C4-list-EC.xlsx
+++ b/Complete-spreadsheets/EC/C4-list-EC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\Complete-spreadsheets\EC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357B4D38-20F1-40CF-A97E-F906DDE3F9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79F3A67-607B-4AE4-86BE-F649E37DB098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13:R14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,23 +496,23 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
-        <v>14.91821877869565</v>
-      </c>
-      <c r="C2" s="3">
-        <v>16.643224087073371</v>
-      </c>
-      <c r="D2" s="3">
-        <v>16.548412014237069</v>
-      </c>
-      <c r="E2" s="3">
-        <v>4.9607210903641921</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1.732729791372156</v>
+      <c r="B2" s="4">
+        <v>11.62747829856097</v>
+      </c>
+      <c r="C2" s="4">
+        <v>34.259028599526573</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4.1233329939963141</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.385905270984964</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.2618657350574569</v>
       </c>
       <c r="G2">
-        <v>54.803305761742443</v>
+        <v>54.657610898126258</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -521,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>26</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -535,22 +535,22 @@
         <v>9</v>
       </c>
       <c r="B3" s="4">
-        <v>11.62747829856097</v>
+        <v>31.896624108091899</v>
       </c>
       <c r="C3" s="4">
-        <v>34.259028599526573</v>
+        <v>6.9186334103465299</v>
       </c>
       <c r="D3" s="4">
-        <v>4.1233329939963141</v>
+        <v>5.5612436305735162</v>
       </c>
       <c r="E3" s="4">
-        <v>2.385905270984964</v>
+        <v>4.1657956672731729</v>
       </c>
       <c r="F3" s="4">
-        <v>2.2618657350574569</v>
+        <v>2.4167564896349671</v>
       </c>
       <c r="G3">
-        <v>54.657610898126258</v>
+        <v>50.959053305920101</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -572,23 +572,23 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
-        <v>17.37310266626568</v>
-      </c>
-      <c r="C4" s="3">
-        <v>6.2388987874132464</v>
-      </c>
-      <c r="D4" s="3">
-        <v>14.33456871089162</v>
-      </c>
-      <c r="E4" s="3">
-        <v>5.5875090402067418</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2.2858160865329711</v>
+      <c r="B4" s="4">
+        <v>108.3638597574913</v>
+      </c>
+      <c r="C4" s="4">
+        <v>29.826625728301408</v>
+      </c>
+      <c r="D4" s="4">
+        <v>18.805779583848409</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6.0783923207862287</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2.570073959100148</v>
       </c>
       <c r="G4">
-        <v>45.819895291310253</v>
+        <v>165.6447313495274</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -597,10 +597,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>12</v>
@@ -611,22 +611,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="4">
-        <v>31.896624108091899</v>
+        <v>17.423927985122521</v>
       </c>
       <c r="C5" s="4">
-        <v>6.9186334103465299</v>
+        <v>10.26159440498982</v>
       </c>
       <c r="D5" s="4">
-        <v>5.5612436305735162</v>
+        <v>5.7737387566274672</v>
       </c>
       <c r="E5" s="4">
-        <v>4.1657956672731729</v>
+        <v>3.271801773921335</v>
       </c>
       <c r="F5" s="4">
-        <v>2.4167564896349671</v>
+        <v>3.0765435987802849</v>
       </c>
       <c r="G5">
-        <v>50.959053305920101</v>
+        <v>39.807606519441443</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
@@ -649,22 +649,22 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>108.3638597574913</v>
+        <v>24.899346050717391</v>
       </c>
       <c r="C6" s="4">
-        <v>29.826625728301408</v>
+        <v>14.92358381379402</v>
       </c>
       <c r="D6" s="4">
-        <v>18.805779583848409</v>
+        <v>68.73737358385236</v>
       </c>
       <c r="E6" s="4">
-        <v>6.0783923207862287</v>
+        <v>8.2000881272309236</v>
       </c>
       <c r="F6" s="4">
-        <v>2.570073959100148</v>
+        <v>3.19796532068148</v>
       </c>
       <c r="G6">
-        <v>165.6447313495274</v>
+        <v>119.9583568962762</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -687,22 +687,22 @@
         <v>9</v>
       </c>
       <c r="B7" s="4">
-        <v>17.423927985122521</v>
+        <v>33.272461971106907</v>
       </c>
       <c r="C7" s="4">
-        <v>10.26159440498982</v>
+        <v>10.72445608097089</v>
       </c>
       <c r="D7" s="4">
-        <v>5.7737387566274672</v>
+        <v>17.61181872202053</v>
       </c>
       <c r="E7" s="4">
-        <v>3.271801773921335</v>
+        <v>4.0903881747153026</v>
       </c>
       <c r="F7" s="4">
-        <v>3.0765435987802849</v>
+        <v>3.2399492683108271</v>
       </c>
       <c r="G7">
-        <v>39.807606519441443</v>
+        <v>68.939074217124471</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
@@ -725,22 +725,22 @@
         <v>9</v>
       </c>
       <c r="B8" s="4">
-        <v>24.899346050717391</v>
+        <v>6.7641122923568577</v>
       </c>
       <c r="C8" s="4">
-        <v>14.92358381379402</v>
+        <v>30.591252755153121</v>
       </c>
       <c r="D8" s="4">
-        <v>68.73737358385236</v>
+        <v>13.483290301784001</v>
       </c>
       <c r="E8" s="4">
-        <v>8.2000881272309236</v>
+        <v>3.5022910084077621</v>
       </c>
       <c r="F8" s="4">
-        <v>3.19796532068148</v>
+        <v>3.4248425384008438</v>
       </c>
       <c r="G8">
-        <v>119.9583568962762</v>
+        <v>57.765788896102592</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
@@ -763,22 +763,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>33.272461971106907</v>
+        <v>6.2262366809806364</v>
       </c>
       <c r="C9" s="4">
-        <v>10.72445608097089</v>
+        <v>16.36802941133687</v>
       </c>
       <c r="D9" s="4">
-        <v>17.61181872202053</v>
+        <v>2.2908096761088301</v>
       </c>
       <c r="E9" s="4">
-        <v>4.0903881747153026</v>
+        <v>2.6922424568930281</v>
       </c>
       <c r="F9" s="4">
-        <v>3.2399492683108271</v>
+        <v>3.4775016151325548</v>
       </c>
       <c r="G9">
-        <v>68.939074217124471</v>
+        <v>31.05481984045193</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -800,23 +800,23 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>25.036287016581781</v>
-      </c>
-      <c r="C10" s="3">
-        <v>47.824310078296442</v>
-      </c>
-      <c r="D10" s="3">
-        <v>23.823100816455408</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5.1077140989563148</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3.2871625089624952</v>
+      <c r="B10" s="4">
+        <v>24.47989649170648</v>
+      </c>
+      <c r="C10" s="4">
+        <v>11.589275286982449</v>
+      </c>
+      <c r="D10" s="4">
+        <v>15.119691098539191</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.9349703947816392</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3.598175617086333</v>
       </c>
       <c r="G10">
-        <v>105.0785745192524</v>
+        <v>59.722008889096067</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>22</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>12</v>
@@ -839,22 +839,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>6.7641122923568577</v>
+        <v>10.064265560221729</v>
       </c>
       <c r="C11" s="4">
-        <v>30.591252755153121</v>
+        <v>8.779013107464543</v>
       </c>
       <c r="D11" s="4">
-        <v>13.483290301784001</v>
+        <v>10.39433722648797</v>
       </c>
       <c r="E11" s="4">
-        <v>3.5022910084077621</v>
+        <v>5.6069388745088036</v>
       </c>
       <c r="F11" s="4">
-        <v>3.4248425384008438</v>
+        <v>3.6913873825580619</v>
       </c>
       <c r="G11">
-        <v>57.765788896102592</v>
+        <v>38.535942151241109</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -877,22 +877,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="4">
-        <v>6.2262366809806364</v>
+        <v>43.22523710305228</v>
       </c>
       <c r="C12" s="4">
-        <v>16.36802941133687</v>
+        <v>12.729483907845911</v>
       </c>
       <c r="D12" s="4">
-        <v>2.2908096761088301</v>
+        <v>30.904966157839841</v>
       </c>
       <c r="E12" s="4">
-        <v>2.6922424568930281</v>
+        <v>6.6305893455602112</v>
       </c>
       <c r="F12" s="4">
-        <v>3.4775016151325548</v>
+        <v>3.7306507073332669</v>
       </c>
       <c r="G12">
-        <v>31.05481984045193</v>
+        <v>97.220927221631499</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="4">
-        <v>24.47989649170648</v>
+        <v>10.310180512744759</v>
       </c>
       <c r="C13" s="4">
-        <v>11.589275286982449</v>
+        <v>36.599694224931199</v>
       </c>
       <c r="D13" s="4">
-        <v>15.119691098539191</v>
+        <v>37.932483047977158</v>
       </c>
       <c r="E13" s="4">
-        <v>4.9349703947816392</v>
+        <v>5.1560811494185668</v>
       </c>
       <c r="F13" s="4">
-        <v>3.598175617086333</v>
+        <v>3.7896765486777788</v>
       </c>
       <c r="G13">
-        <v>59.722008889096067</v>
+        <v>93.788115483749451</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -956,22 +956,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="4">
-        <v>10.064265560221729</v>
+        <v>28.628636847877999</v>
       </c>
       <c r="C14" s="4">
-        <v>8.779013107464543</v>
+        <v>17.04897434165402</v>
       </c>
       <c r="D14" s="4">
-        <v>10.39433722648797</v>
+        <v>63.381237676442581</v>
       </c>
       <c r="E14" s="4">
-        <v>5.6069388745088036</v>
+        <v>6.8685874928584392</v>
       </c>
       <c r="F14" s="4">
-        <v>3.6913873825580619</v>
+        <v>3.8035880926430452</v>
       </c>
       <c r="G14">
-        <v>38.535942151241109</v>
+        <v>119.7310244514761</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -997,22 +997,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="4">
-        <v>43.22523710305228</v>
+        <v>23.10688110817572</v>
       </c>
       <c r="C15" s="4">
-        <v>12.729483907845911</v>
+        <v>8.4944794708548486</v>
       </c>
       <c r="D15" s="4">
-        <v>30.904966157839841</v>
+        <v>19.801173819486689</v>
       </c>
       <c r="E15" s="4">
-        <v>6.6305893455602112</v>
+        <v>9.3374043313459545</v>
       </c>
       <c r="F15" s="4">
-        <v>3.7306507073332669</v>
+        <v>4.1206508815414029</v>
       </c>
       <c r="G15">
-        <v>97.220927221631499</v>
+        <v>64.860589611404635</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>9</v>
       </c>
       <c r="B16" s="4">
-        <v>10.310180512744759</v>
+        <v>7.0514263169562739</v>
       </c>
       <c r="C16" s="4">
-        <v>36.599694224931199</v>
+        <v>46.851385682101927</v>
       </c>
       <c r="D16" s="4">
-        <v>37.932483047977158</v>
+        <v>24.280159212776908</v>
       </c>
       <c r="E16" s="4">
-        <v>5.1560811494185668</v>
+        <v>5.84643885854336</v>
       </c>
       <c r="F16" s="4">
-        <v>3.7896765486777788</v>
+        <v>4.6588837838111088</v>
       </c>
       <c r="G16">
-        <v>93.788115483749451</v>
+        <v>88.688293854189624</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -1073,22 +1073,22 @@
         <v>9</v>
       </c>
       <c r="B17" s="4">
-        <v>28.628636847877999</v>
+        <v>73.124246450774351</v>
       </c>
       <c r="C17" s="4">
-        <v>17.04897434165402</v>
+        <v>38.290535261504523</v>
       </c>
       <c r="D17" s="4">
-        <v>63.381237676442581</v>
+        <v>7.7907169357927382</v>
       </c>
       <c r="E17" s="4">
-        <v>6.8685874928584392</v>
+        <v>7.3824054523052967</v>
       </c>
       <c r="F17" s="4">
-        <v>3.8035880926430452</v>
+        <v>4.6964903130193738</v>
       </c>
       <c r="G17">
-        <v>119.7310244514761</v>
+        <v>131.28439441339631</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -1111,22 +1111,22 @@
         <v>9</v>
       </c>
       <c r="B18" s="4">
-        <v>23.10688110817572</v>
+        <v>27.726273498517561</v>
       </c>
       <c r="C18" s="4">
-        <v>8.4944794708548486</v>
+        <v>24.913500095563919</v>
       </c>
       <c r="D18" s="4">
-        <v>19.801173819486689</v>
+        <v>32.143924113626127</v>
       </c>
       <c r="E18" s="4">
-        <v>9.3374043313459545</v>
+        <v>6.8684726087814703</v>
       </c>
       <c r="F18" s="4">
-        <v>4.1206508815414029</v>
+        <v>5.4944672132507346</v>
       </c>
       <c r="G18">
-        <v>64.860589611404635</v>
+        <v>97.146637529739849</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -1149,22 +1149,22 @@
         <v>9</v>
       </c>
       <c r="B19" s="4">
-        <v>7.0514263169562739</v>
+        <v>5.4764948206000881</v>
       </c>
       <c r="C19" s="4">
-        <v>46.851385682101927</v>
+        <v>24.86400464812515</v>
       </c>
       <c r="D19" s="4">
-        <v>24.280159212776908</v>
+        <v>19.62037640895641</v>
       </c>
       <c r="E19" s="4">
-        <v>5.84643885854336</v>
+        <v>4.7485476570095333</v>
       </c>
       <c r="F19" s="4">
-        <v>4.6588837838111088</v>
+        <v>6.1216824725572589</v>
       </c>
       <c r="G19">
-        <v>88.688293854189624</v>
+        <v>60.831106007248451</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -1187,22 +1187,22 @@
         <v>9</v>
       </c>
       <c r="B20" s="4">
-        <v>73.124246450774351</v>
+        <v>7.8051694977078414</v>
       </c>
       <c r="C20" s="4">
-        <v>38.290535261504523</v>
+        <v>58.12085753439635</v>
       </c>
       <c r="D20" s="4">
-        <v>7.7907169357927382</v>
+        <v>24.257973776274302</v>
       </c>
       <c r="E20" s="4">
-        <v>7.3824054523052967</v>
+        <v>4.9938939836305671</v>
       </c>
       <c r="F20" s="4">
-        <v>4.6964903130193738</v>
+        <v>7.0889539987748531</v>
       </c>
       <c r="G20">
-        <v>131.28439441339631</v>
+        <v>102.2668487907839</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
@@ -1224,23 +1224,23 @@
       <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="3">
-        <v>16.17822732026282</v>
-      </c>
-      <c r="C21" s="3">
-        <v>6.9294785664362646</v>
-      </c>
-      <c r="D21" s="3">
-        <v>3.0069069177373691</v>
-      </c>
-      <c r="E21" s="3">
-        <v>9.1625475075827438</v>
-      </c>
-      <c r="F21" s="3">
-        <v>4.7219991843108424</v>
+      <c r="B21" s="4">
+        <v>36.39083870140901</v>
+      </c>
+      <c r="C21" s="4">
+        <v>24.07030763944142</v>
+      </c>
+      <c r="D21" s="4">
+        <v>86.945001524889577</v>
+      </c>
+      <c r="E21" s="4">
+        <v>16.41362994911151</v>
+      </c>
+      <c r="F21" s="4">
+        <v>7.7754699255019242</v>
       </c>
       <c r="G21">
-        <v>39.999159496330037</v>
+        <v>171.59524774035339</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>17</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
       </c>
       <c r="L21" t="s">
         <v>12</v>
@@ -1262,23 +1262,23 @@
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="3">
-        <v>11.516030051242829</v>
-      </c>
-      <c r="C22" s="3">
-        <v>11.663300467711551</v>
-      </c>
-      <c r="D22" s="3">
-        <v>20.79982160263733</v>
-      </c>
-      <c r="E22" s="3">
-        <v>6.55347601984385</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4.8219598138408779</v>
+      <c r="B22" s="4">
+        <v>9.666266249598749</v>
+      </c>
+      <c r="C22" s="4">
+        <v>25.585355347306439</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5.127954764398317</v>
+      </c>
+      <c r="E22" s="4">
+        <v>4.2189849704177496</v>
+      </c>
+      <c r="F22" s="4">
+        <v>10.523106083925491</v>
       </c>
       <c r="G22">
-        <v>55.354587955276443</v>
+        <v>55.121667415646733</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1287,10 +1287,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
       </c>
       <c r="L22" t="s">
         <v>12</v>
@@ -1300,23 +1300,23 @@
       <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="3">
-        <v>12.34393944677436</v>
-      </c>
-      <c r="C23" s="3">
-        <v>7.5500444119596013</v>
-      </c>
-      <c r="D23" s="3">
-        <v>34.666595605376287</v>
-      </c>
-      <c r="E23" s="3">
-        <v>12.665312484862479</v>
-      </c>
-      <c r="F23" s="3">
-        <v>4.9002578895987341</v>
+      <c r="B23" s="4">
+        <v>1431.4113182237011</v>
+      </c>
+      <c r="C23" s="4">
+        <v>135.7392666544508</v>
+      </c>
+      <c r="D23" s="4">
+        <v>54.651339006886118</v>
+      </c>
+      <c r="E23" s="4">
+        <v>16.476162384679629</v>
+      </c>
+      <c r="F23" s="4">
+        <v>11.52300512198777</v>
       </c>
       <c r="G23">
-        <v>72.12614983857145</v>
+        <v>1649.8010913917051</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1325,10 +1325,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
       </c>
       <c r="L23" t="s">
         <v>12</v>
@@ -1339,22 +1339,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3">
-        <v>12.314298896083841</v>
+        <v>14.91821877869565</v>
       </c>
       <c r="C24" s="3">
-        <v>10.02008463230491</v>
+        <v>16.643224087073371</v>
       </c>
       <c r="D24" s="3">
-        <v>28.3974889743582</v>
+        <v>16.548412014237069</v>
       </c>
       <c r="E24" s="3">
-        <v>6.6960751893399726</v>
+        <v>4.9607210903641921</v>
       </c>
       <c r="F24" s="3">
-        <v>4.9689431515349911</v>
+        <v>1.732729791372156</v>
       </c>
       <c r="G24">
-        <v>62.396890843621932</v>
+        <v>54.803305761742443</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="K24" s="3">
         <v>1</v>
@@ -1377,22 +1377,22 @@
         <v>9</v>
       </c>
       <c r="B25" s="3">
-        <v>23.20172496519066</v>
+        <v>17.37310266626568</v>
       </c>
       <c r="C25" s="3">
-        <v>27.913110601005091</v>
+        <v>6.2388987874132464</v>
       </c>
       <c r="D25" s="3">
-        <v>174.58841145657229</v>
+        <v>14.33456871089162</v>
       </c>
       <c r="E25" s="3">
-        <v>17.793194136932129</v>
+        <v>5.5875090402067418</v>
       </c>
       <c r="F25" s="3">
-        <v>5.0566030813907581</v>
+        <v>2.2858160865329711</v>
       </c>
       <c r="G25">
-        <v>248.5530442410909</v>
+        <v>45.819895291310253</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K25" s="3">
         <v>1</v>
@@ -1415,22 +1415,22 @@
         <v>9</v>
       </c>
       <c r="B26" s="3">
-        <v>158.0605597248852</v>
+        <v>25.036287016581781</v>
       </c>
       <c r="C26" s="3">
-        <v>36.076217895742467</v>
+        <v>47.824310078296442</v>
       </c>
       <c r="D26" s="3">
-        <v>14.30464462059672</v>
+        <v>23.823100816455408</v>
       </c>
       <c r="E26" s="3">
-        <v>10.57529111145476</v>
+        <v>5.1077140989563148</v>
       </c>
       <c r="F26" s="3">
-        <v>5.4726364442797406</v>
+        <v>3.2871625089624952</v>
       </c>
       <c r="G26">
-        <v>224.48934979695889</v>
+        <v>105.0785745192524</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K26" s="3">
         <v>1</v>
@@ -1452,23 +1452,23 @@
       <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="4">
-        <v>27.726273498517561</v>
-      </c>
-      <c r="C27" s="4">
-        <v>24.913500095563919</v>
-      </c>
-      <c r="D27" s="4">
-        <v>32.143924113626127</v>
-      </c>
-      <c r="E27" s="4">
-        <v>6.8684726087814703</v>
-      </c>
-      <c r="F27" s="4">
-        <v>5.4944672132507346</v>
+      <c r="B27" s="3">
+        <v>16.17822732026282</v>
+      </c>
+      <c r="C27" s="3">
+        <v>6.9294785664362646</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3.0069069177373691</v>
+      </c>
+      <c r="E27" s="3">
+        <v>9.1625475075827438</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4.7219991843108424</v>
       </c>
       <c r="G27">
-        <v>97.146637529739849</v>
+        <v>39.999159496330037</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1477,10 +1477,10 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>20</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
       </c>
       <c r="L27" t="s">
         <v>12</v>
@@ -1491,22 +1491,22 @@
         <v>9</v>
       </c>
       <c r="B28" s="3">
-        <v>7.6314436003782653</v>
+        <v>11.516030051242829</v>
       </c>
       <c r="C28" s="3">
-        <v>4.632249846805558</v>
+        <v>11.663300467711551</v>
       </c>
       <c r="D28" s="3">
-        <v>16.544019426825319</v>
+        <v>20.79982160263733</v>
       </c>
       <c r="E28" s="3">
-        <v>14.20776292048598</v>
+        <v>6.55347601984385</v>
       </c>
       <c r="F28" s="3">
-        <v>5.6048066921078892</v>
+        <v>4.8219598138408779</v>
       </c>
       <c r="G28">
-        <v>48.62028248660301</v>
+        <v>55.354587955276443</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K28" s="3">
         <v>1</v>
@@ -1529,22 +1529,22 @@
         <v>9</v>
       </c>
       <c r="B29" s="3">
-        <v>377.81851327169488</v>
+        <v>12.34393944677436</v>
       </c>
       <c r="C29" s="3">
-        <v>95.776071737720216</v>
+        <v>7.5500444119596013</v>
       </c>
       <c r="D29" s="3">
-        <v>30.624141396300189</v>
+        <v>34.666595605376287</v>
       </c>
       <c r="E29" s="3">
-        <v>14.12258003781246</v>
+        <v>12.665312484862479</v>
       </c>
       <c r="F29" s="3">
-        <v>6.0316520878211586</v>
+        <v>4.9002578895987341</v>
       </c>
       <c r="G29">
-        <v>524.37295853134879</v>
+        <v>72.12614983857145</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="K29" s="3">
         <v>1</v>
@@ -1567,22 +1567,22 @@
         <v>9</v>
       </c>
       <c r="B30" s="3">
-        <v>39.278976101752349</v>
+        <v>12.314298896083841</v>
       </c>
       <c r="C30" s="3">
-        <v>6.3772272915049726</v>
+        <v>10.02008463230491</v>
       </c>
       <c r="D30" s="3">
-        <v>9.0834895104013231</v>
+        <v>28.3974889743582</v>
       </c>
       <c r="E30" s="3">
-        <v>7.8415303612290064</v>
+        <v>6.6960751893399726</v>
       </c>
       <c r="F30" s="3">
-        <v>6.0991686920732082</v>
+        <v>4.9689431515349911</v>
       </c>
       <c r="G30">
-        <v>68.680391956960875</v>
+        <v>62.396890843621932</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="K30" s="3">
         <v>1</v>
@@ -1604,23 +1604,23 @@
       <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="4">
-        <v>5.4764948206000881</v>
-      </c>
-      <c r="C31" s="4">
-        <v>24.86400464812515</v>
-      </c>
-      <c r="D31" s="4">
-        <v>19.62037640895641</v>
-      </c>
-      <c r="E31" s="4">
-        <v>4.7485476570095333</v>
-      </c>
-      <c r="F31" s="4">
-        <v>6.1216824725572589</v>
+      <c r="B31" s="3">
+        <v>23.20172496519066</v>
+      </c>
+      <c r="C31" s="3">
+        <v>27.913110601005091</v>
+      </c>
+      <c r="D31" s="3">
+        <v>174.58841145657229</v>
+      </c>
+      <c r="E31" s="3">
+        <v>17.793194136932129</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5.0566030813907581</v>
       </c>
       <c r="G31">
-        <v>60.831106007248451</v>
+        <v>248.5530442410909</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1629,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>5</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
       </c>
       <c r="L31" t="s">
         <v>12</v>
@@ -1643,22 +1643,22 @@
         <v>9</v>
       </c>
       <c r="B32" s="3">
-        <v>10.732215694884699</v>
+        <v>158.0605597248852</v>
       </c>
       <c r="C32" s="3">
-        <v>6.706940831041738</v>
+        <v>36.076217895742467</v>
       </c>
       <c r="D32" s="3">
-        <v>10.62648610498467</v>
+        <v>14.30464462059672</v>
       </c>
       <c r="E32" s="3">
-        <v>7.9852718869337593</v>
+        <v>10.57529111145476</v>
       </c>
       <c r="F32" s="3">
-        <v>6.2280223416982397</v>
+        <v>5.4726364442797406</v>
       </c>
       <c r="G32">
-        <v>42.278936859543109</v>
+        <v>224.48934979695889</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="K32" s="3">
         <v>1</v>
@@ -1681,22 +1681,22 @@
         <v>9</v>
       </c>
       <c r="B33" s="3">
-        <v>31.18481297074085</v>
+        <v>7.6314436003782653</v>
       </c>
       <c r="C33" s="3">
-        <v>21.407551527387191</v>
+        <v>4.632249846805558</v>
       </c>
       <c r="D33" s="3">
-        <v>14.97229166697727</v>
+        <v>16.544019426825319</v>
       </c>
       <c r="E33" s="3">
-        <v>10.666364683750031</v>
+        <v>14.20776292048598</v>
       </c>
       <c r="F33" s="3">
-        <v>6.4085042571147923</v>
+        <v>5.6048066921078892</v>
       </c>
       <c r="G33">
-        <v>84.639525105970137</v>
+        <v>48.62028248660301</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="K33" s="3">
         <v>1</v>
@@ -1718,23 +1718,23 @@
       <c r="A34" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="4">
-        <v>7.8051694977078414</v>
-      </c>
-      <c r="C34" s="4">
-        <v>58.12085753439635</v>
-      </c>
-      <c r="D34" s="4">
-        <v>24.257973776274302</v>
-      </c>
-      <c r="E34" s="4">
-        <v>4.9938939836305671</v>
-      </c>
-      <c r="F34" s="4">
-        <v>7.0889539987748531</v>
+      <c r="B34" s="3">
+        <v>377.81851327169488</v>
+      </c>
+      <c r="C34" s="3">
+        <v>95.776071737720216</v>
+      </c>
+      <c r="D34" s="3">
+        <v>30.624141396300189</v>
+      </c>
+      <c r="E34" s="3">
+        <v>14.12258003781246</v>
+      </c>
+      <c r="F34" s="3">
+        <v>6.0316520878211586</v>
       </c>
       <c r="G34">
-        <v>102.2668487907839</v>
+        <v>524.37295853134879</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>19</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
       </c>
       <c r="L34" t="s">
         <v>12</v>
@@ -1756,23 +1756,23 @@
       <c r="A35" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="4">
-        <v>36.39083870140901</v>
-      </c>
-      <c r="C35" s="4">
-        <v>24.07030763944142</v>
-      </c>
-      <c r="D35" s="4">
-        <v>86.945001524889577</v>
-      </c>
-      <c r="E35" s="4">
-        <v>16.41362994911151</v>
-      </c>
-      <c r="F35" s="4">
-        <v>7.7754699255019242</v>
+      <c r="B35" s="3">
+        <v>39.278976101752349</v>
+      </c>
+      <c r="C35" s="3">
+        <v>6.3772272915049726</v>
+      </c>
+      <c r="D35" s="3">
+        <v>9.0834895104013231</v>
+      </c>
+      <c r="E35" s="3">
+        <v>7.8415303612290064</v>
+      </c>
+      <c r="F35" s="3">
+        <v>6.0991686920732082</v>
       </c>
       <c r="G35">
-        <v>171.59524774035339</v>
+        <v>68.680391956960875</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1781,10 +1781,10 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>11</v>
-      </c>
-      <c r="K35" s="4">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1</v>
       </c>
       <c r="L35" t="s">
         <v>12</v>
@@ -1795,22 +1795,22 @@
         <v>9</v>
       </c>
       <c r="B36" s="3">
-        <v>199.12311799769321</v>
+        <v>10.732215694884699</v>
       </c>
       <c r="C36" s="3">
-        <v>13.740039791010821</v>
+        <v>6.706940831041738</v>
       </c>
       <c r="D36" s="3">
-        <v>53.469975516234022</v>
+        <v>10.62648610498467</v>
       </c>
       <c r="E36" s="3">
-        <v>23.552890514878229</v>
+        <v>7.9852718869337593</v>
       </c>
       <c r="F36" s="3">
-        <v>8.5471425266448406</v>
+        <v>6.2280223416982397</v>
       </c>
       <c r="G36">
-        <v>298.43316634646112</v>
+        <v>42.278936859543109</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K36" s="3">
         <v>1</v>
@@ -1833,22 +1833,22 @@
         <v>9</v>
       </c>
       <c r="B37" s="3">
-        <v>15.88085813734012</v>
+        <v>31.18481297074085</v>
       </c>
       <c r="C37" s="3">
-        <v>7.0937337372517053</v>
+        <v>21.407551527387191</v>
       </c>
       <c r="D37" s="3">
-        <v>9.7018463241472741</v>
+        <v>14.97229166697727</v>
       </c>
       <c r="E37" s="3">
-        <v>15.369313734988101</v>
+        <v>10.666364683750031</v>
       </c>
       <c r="F37" s="3">
-        <v>10.11425097610315</v>
+        <v>6.4085042571147923</v>
       </c>
       <c r="G37">
-        <v>58.160002909830339</v>
+        <v>84.639525105970137</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="K37" s="3">
         <v>1</v>
@@ -1870,23 +1870,23 @@
       <c r="A38" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="4">
-        <v>9.666266249598749</v>
-      </c>
-      <c r="C38" s="4">
-        <v>25.585355347306439</v>
-      </c>
-      <c r="D38" s="4">
-        <v>5.127954764398317</v>
-      </c>
-      <c r="E38" s="4">
-        <v>4.2189849704177496</v>
-      </c>
-      <c r="F38" s="4">
-        <v>10.523106083925491</v>
+      <c r="B38" s="3">
+        <v>199.12311799769321</v>
+      </c>
+      <c r="C38" s="3">
+        <v>13.740039791010821</v>
+      </c>
+      <c r="D38" s="3">
+        <v>53.469975516234022</v>
+      </c>
+      <c r="E38" s="3">
+        <v>23.552890514878229</v>
+      </c>
+      <c r="F38" s="3">
+        <v>8.5471425266448406</v>
       </c>
       <c r="G38">
-        <v>55.121667415646733</v>
+        <v>298.43316634646112</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1895,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>23</v>
-      </c>
-      <c r="K38" s="4">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1</v>
       </c>
       <c r="L38" t="s">
         <v>12</v>
@@ -1909,22 +1909,22 @@
         <v>9</v>
       </c>
       <c r="B39" s="3">
-        <v>16.606068730422319</v>
+        <v>15.88085813734012</v>
       </c>
       <c r="C39" s="3">
-        <v>26.702918699133321</v>
+        <v>7.0937337372517053</v>
       </c>
       <c r="D39" s="3">
-        <v>13.68645286928505</v>
+        <v>9.7018463241472741</v>
       </c>
       <c r="E39" s="3">
-        <v>12.39362615123051</v>
+        <v>15.369313734988101</v>
       </c>
       <c r="F39" s="3">
-        <v>10.860712463750071</v>
+        <v>10.11425097610315</v>
       </c>
       <c r="G39">
-        <v>80.24977891382126</v>
+        <v>58.160002909830339</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="K39" s="3">
         <v>1</v>
@@ -1947,22 +1947,22 @@
         <v>9</v>
       </c>
       <c r="B40" s="3">
-        <v>15.551256995454869</v>
+        <v>16.606068730422319</v>
       </c>
       <c r="C40" s="3">
-        <v>9.8986532056123302</v>
+        <v>26.702918699133321</v>
       </c>
       <c r="D40" s="3">
-        <v>24.52175562335642</v>
+        <v>13.68645286928505</v>
       </c>
       <c r="E40" s="3">
-        <v>13.33299243796055</v>
+        <v>12.39362615123051</v>
       </c>
       <c r="F40" s="3">
-        <v>11.2607910826503</v>
+        <v>10.860712463750071</v>
       </c>
       <c r="G40">
-        <v>74.565449345034466</v>
+        <v>80.24977891382126</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K40" s="3">
         <v>1</v>
@@ -1984,23 +1984,23 @@
       <c r="A41" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="4">
-        <v>1431.4113182237011</v>
-      </c>
-      <c r="C41" s="4">
-        <v>135.7392666544508</v>
-      </c>
-      <c r="D41" s="4">
-        <v>54.651339006886118</v>
-      </c>
-      <c r="E41" s="4">
-        <v>16.476162384679629</v>
-      </c>
-      <c r="F41" s="4">
-        <v>11.52300512198777</v>
+      <c r="B41" s="3">
+        <v>15.551256995454869</v>
+      </c>
+      <c r="C41" s="3">
+        <v>9.8986532056123302</v>
+      </c>
+      <c r="D41" s="3">
+        <v>24.52175562335642</v>
+      </c>
+      <c r="E41" s="3">
+        <v>13.33299243796055</v>
+      </c>
+      <c r="F41" s="3">
+        <v>11.2607910826503</v>
       </c>
       <c r="G41">
-        <v>1649.8010913917051</v>
+        <v>74.565449345034466</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2009,10 +2009,10 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>21</v>
-      </c>
-      <c r="K41" s="4">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1</v>
       </c>
       <c r="L41" t="s">
         <v>12</v>
@@ -2247,8 +2247,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K51">
-    <sortCondition ref="F2:F51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L47">
+    <sortCondition ref="K2:K47"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
